--- a/source/2025.09.23 SH 2025년 2차 장기매임대 매입임대주택.xlsx
+++ b/source/2025.09.23 SH 2025년 2차 장기매임대 매입임대주택.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="117">
   <si>
     <t>연번</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -910,76 +910,13 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>27형</t>
-  </si>
-  <si>
-    <t>25형</t>
-  </si>
-  <si>
-    <t>46형</t>
-  </si>
-  <si>
-    <t>32형</t>
-  </si>
-  <si>
-    <t>28형</t>
-  </si>
-  <si>
-    <t>26형</t>
-  </si>
-  <si>
-    <t>23형</t>
-  </si>
-  <si>
-    <t>29형</t>
-  </si>
-  <si>
-    <t>22형</t>
-  </si>
-  <si>
-    <t>44형</t>
-  </si>
-  <si>
-    <t>41형</t>
-  </si>
-  <si>
-    <t>50형</t>
-  </si>
-  <si>
-    <t>51형</t>
-  </si>
-  <si>
-    <t>59형</t>
-  </si>
-  <si>
-    <t>42형</t>
-  </si>
-  <si>
-    <t>58형</t>
-  </si>
-  <si>
-    <t>48형</t>
-  </si>
-  <si>
-    <t>39형</t>
-  </si>
-  <si>
-    <t>69형</t>
-  </si>
-  <si>
-    <t>36형</t>
-  </si>
-  <si>
-    <t>80형</t>
-  </si>
-  <si>
-    <t>76형</t>
-  </si>
-  <si>
-    <t>70형</t>
-  </si>
-  <si>
-    <t>56형</t>
+    <t>10평 미만</t>
+  </si>
+  <si>
+    <t>10평대</t>
+  </si>
+  <si>
+    <t>20평대</t>
   </si>
 </sst>
 </file>
@@ -987,8 +924,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="177" formatCode="0000"/>
-    <numFmt numFmtId="178" formatCode="0.0"/>
+    <numFmt numFmtId="176" formatCode="0000"/>
+    <numFmt numFmtId="177" formatCode="0.0"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -1197,7 +1134,7 @@
     <xf numFmtId="3" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1221,7 +1158,7 @@
     <xf numFmtId="1" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -1507,8 +1444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1629,7 +1566,7 @@
         <v>25.92</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J3" s="10" t="s">
         <v>113</v>
@@ -1667,7 +1604,7 @@
         <v>25.68</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J4" s="10" t="s">
         <v>113</v>
@@ -1705,7 +1642,7 @@
         <v>46.83</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J5" s="10" t="s">
         <v>113</v>
@@ -1743,7 +1680,7 @@
         <v>32.9</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="J6" s="10" t="s">
         <v>113</v>
@@ -1781,7 +1718,7 @@
         <v>28.41</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="J7" s="10" t="s">
         <v>113</v>
@@ -1819,7 +1756,7 @@
         <v>25.27</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J8" s="10" t="s">
         <v>113</v>
@@ -1971,7 +1908,7 @@
         <v>26.7</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="J12" s="10" t="s">
         <v>113</v>
@@ -2009,7 +1946,7 @@
         <v>23.76</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="J13" s="10" t="s">
         <v>113</v>
@@ -2047,7 +1984,7 @@
         <v>29.29</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="J14" s="10" t="s">
         <v>113</v>
@@ -2085,7 +2022,7 @@
         <v>26.79</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="J15" s="10" t="s">
         <v>113</v>
@@ -2161,7 +2098,7 @@
         <v>22.67</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="J17" s="10" t="s">
         <v>113</v>
@@ -2199,7 +2136,7 @@
         <v>29.52</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="J18" s="10" t="s">
         <v>113</v>
@@ -2237,7 +2174,7 @@
         <v>25.16</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J19" s="10" t="s">
         <v>113</v>
@@ -2275,7 +2212,7 @@
         <v>25.18</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J20" s="10" t="s">
         <v>113</v>
@@ -2313,7 +2250,7 @@
         <v>25.03</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J21" s="10" t="s">
         <v>113</v>
@@ -2351,7 +2288,7 @@
         <v>26.76</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="J22" s="10" t="s">
         <v>113</v>
@@ -2389,7 +2326,7 @@
         <v>29.4</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="J23" s="10" t="s">
         <v>113</v>
@@ -2427,7 +2364,7 @@
         <v>44.42</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="J24" s="10" t="s">
         <v>113</v>
@@ -2465,7 +2402,7 @@
         <v>46.66</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J25" s="10" t="s">
         <v>113</v>
@@ -2503,7 +2440,7 @@
         <v>46.22</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J26" s="10" t="s">
         <v>113</v>
@@ -2541,7 +2478,7 @@
         <v>46.22</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J27" s="10" t="s">
         <v>113</v>
@@ -2579,7 +2516,7 @@
         <v>46.22</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J28" s="10" t="s">
         <v>113</v>
@@ -2617,7 +2554,7 @@
         <v>41.53</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="J29" s="10" t="s">
         <v>113</v>
@@ -2655,7 +2592,7 @@
         <v>50</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="J30" s="10" t="s">
         <v>113</v>
@@ -2693,7 +2630,7 @@
         <v>41.53</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="J31" s="10" t="s">
         <v>113</v>
@@ -2731,7 +2668,7 @@
         <v>50</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="J32" s="10" t="s">
         <v>113</v>
@@ -2769,7 +2706,7 @@
         <v>46.58</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J33" s="10" t="s">
         <v>113</v>
@@ -2807,7 +2744,7 @@
         <v>51.34</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="J34" s="10" t="s">
         <v>113</v>
@@ -2845,7 +2782,7 @@
         <v>59.45</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="J35" s="10" t="s">
         <v>113</v>
@@ -2883,7 +2820,7 @@
         <v>51.34</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="J36" s="10" t="s">
         <v>113</v>
@@ -2921,7 +2858,7 @@
         <v>59.45</v>
       </c>
       <c r="I37" s="10" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="J37" s="10" t="s">
         <v>113</v>
@@ -2959,7 +2896,7 @@
         <v>51.34</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="J38" s="10" t="s">
         <v>113</v>
@@ -2997,7 +2934,7 @@
         <v>59.45</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="J39" s="10" t="s">
         <v>113</v>
@@ -3035,7 +2972,7 @@
         <v>42.19</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="J40" s="10" t="s">
         <v>113</v>
@@ -3073,7 +3010,7 @@
         <v>42.19</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="J41" s="10" t="s">
         <v>113</v>
@@ -3111,7 +3048,7 @@
         <v>42.19</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="J42" s="10" t="s">
         <v>113</v>
@@ -3149,7 +3086,7 @@
         <v>42.19</v>
       </c>
       <c r="I43" s="10" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="J43" s="10" t="s">
         <v>113</v>
@@ -3187,7 +3124,7 @@
         <v>42.19</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="J44" s="10" t="s">
         <v>113</v>
@@ -3225,7 +3162,7 @@
         <v>59.89</v>
       </c>
       <c r="I45" s="10" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="J45" s="10" t="s">
         <v>113</v>
@@ -3263,7 +3200,7 @@
         <v>58.77</v>
       </c>
       <c r="I46" s="10" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="J46" s="10" t="s">
         <v>113</v>
@@ -3301,7 +3238,7 @@
         <v>59.9</v>
       </c>
       <c r="I47" s="10" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="J47" s="10" t="s">
         <v>113</v>
@@ -3339,7 +3276,7 @@
         <v>58.2</v>
       </c>
       <c r="I48" s="10" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="J48" s="10" t="s">
         <v>113</v>
@@ -3377,7 +3314,7 @@
         <v>48.95</v>
       </c>
       <c r="I49" s="10" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="J49" s="10" t="s">
         <v>113</v>
@@ -3415,7 +3352,7 @@
         <v>48.95</v>
       </c>
       <c r="I50" s="10" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="J50" s="10" t="s">
         <v>113</v>
@@ -3453,7 +3390,7 @@
         <v>48.95</v>
       </c>
       <c r="I51" s="10" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="J51" s="10" t="s">
         <v>113</v>
@@ -3491,7 +3428,7 @@
         <v>48.95</v>
       </c>
       <c r="I52" s="10" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="J52" s="10" t="s">
         <v>113</v>
@@ -3529,7 +3466,7 @@
         <v>48.95</v>
       </c>
       <c r="I53" s="10" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="J53" s="10" t="s">
         <v>113</v>
@@ -3567,7 +3504,7 @@
         <v>48.95</v>
       </c>
       <c r="I54" s="10" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="J54" s="10" t="s">
         <v>113</v>
@@ -3605,7 +3542,7 @@
         <v>48.95</v>
       </c>
       <c r="I55" s="10" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="J55" s="10" t="s">
         <v>113</v>
@@ -3643,7 +3580,7 @@
         <v>48.95</v>
       </c>
       <c r="I56" s="10" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="J56" s="10" t="s">
         <v>113</v>
@@ -3681,7 +3618,7 @@
         <v>48.95</v>
       </c>
       <c r="I57" s="10" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="J57" s="10" t="s">
         <v>113</v>
@@ -3719,7 +3656,7 @@
         <v>48.95</v>
       </c>
       <c r="I58" s="10" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="J58" s="10" t="s">
         <v>113</v>
@@ -3757,7 +3694,7 @@
         <v>48.95</v>
       </c>
       <c r="I59" s="10" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="J59" s="10" t="s">
         <v>113</v>
@@ -3795,7 +3732,7 @@
         <v>51.54</v>
       </c>
       <c r="I60" s="10" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="J60" s="10" t="s">
         <v>113</v>
@@ -3833,7 +3770,7 @@
         <v>39.68</v>
       </c>
       <c r="I61" s="10" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="J61" s="10" t="s">
         <v>113</v>
@@ -3871,7 +3808,7 @@
         <v>39.68</v>
       </c>
       <c r="I62" s="10" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="J62" s="10" t="s">
         <v>113</v>
@@ -3909,7 +3846,7 @@
         <v>50.9</v>
       </c>
       <c r="I63" s="10" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="J63" s="10" t="s">
         <v>113</v>
@@ -3947,7 +3884,7 @@
         <v>46.54</v>
       </c>
       <c r="I64" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J64" s="10" t="s">
         <v>113</v>
@@ -3985,7 +3922,7 @@
         <v>46.54</v>
       </c>
       <c r="I65" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J65" s="10" t="s">
         <v>113</v>
@@ -4023,7 +3960,7 @@
         <v>46.54</v>
       </c>
       <c r="I66" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J66" s="10" t="s">
         <v>113</v>
@@ -4061,7 +3998,7 @@
         <v>46.62</v>
       </c>
       <c r="I67" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J67" s="10" t="s">
         <v>113</v>
@@ -4099,7 +4036,7 @@
         <v>46.62</v>
       </c>
       <c r="I68" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J68" s="10" t="s">
         <v>113</v>
@@ -4137,7 +4074,7 @@
         <v>46.54</v>
       </c>
       <c r="I69" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J69" s="10" t="s">
         <v>113</v>
@@ -4175,7 +4112,7 @@
         <v>69.3</v>
       </c>
       <c r="I70" s="10" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="J70" s="10" t="s">
         <v>113</v>
@@ -4213,7 +4150,7 @@
         <v>69.3</v>
       </c>
       <c r="I71" s="10" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="J71" s="10" t="s">
         <v>113</v>
@@ -4251,7 +4188,7 @@
         <v>69.599999999999994</v>
       </c>
       <c r="I72" s="10" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="J72" s="10" t="s">
         <v>113</v>
@@ -4289,7 +4226,7 @@
         <v>36.83</v>
       </c>
       <c r="I73" s="10" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="J73" s="10" t="s">
         <v>113</v>
@@ -4327,7 +4264,7 @@
         <v>36.36</v>
       </c>
       <c r="I74" s="10" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="J74" s="10" t="s">
         <v>113</v>
@@ -4365,7 +4302,7 @@
         <v>36.86</v>
       </c>
       <c r="I75" s="10" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="J75" s="10" t="s">
         <v>113</v>
@@ -4403,7 +4340,7 @@
         <v>80.349999999999994</v>
       </c>
       <c r="I76" s="10" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="J76" s="10" t="s">
         <v>113</v>
@@ -4441,7 +4378,7 @@
         <v>80.349999999999994</v>
       </c>
       <c r="I77" s="10" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="J77" s="10" t="s">
         <v>113</v>
@@ -4479,7 +4416,7 @@
         <v>76.23</v>
       </c>
       <c r="I78" s="10" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="J78" s="10" t="s">
         <v>113</v>
@@ -4517,7 +4454,7 @@
         <v>70.099999999999994</v>
       </c>
       <c r="I79" s="10" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="J79" s="10" t="s">
         <v>113</v>
@@ -4555,7 +4492,7 @@
         <v>42.08</v>
       </c>
       <c r="I80" s="10" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="J80" s="10" t="s">
         <v>113</v>
@@ -4593,7 +4530,7 @@
         <v>42.08</v>
       </c>
       <c r="I81" s="10" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="J81" s="10" t="s">
         <v>113</v>
@@ -4631,7 +4568,7 @@
         <v>42.08</v>
       </c>
       <c r="I82" s="10" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="J82" s="10" t="s">
         <v>113</v>
@@ -4669,7 +4606,7 @@
         <v>42.08</v>
       </c>
       <c r="I83" s="10" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="J83" s="10" t="s">
         <v>113</v>
@@ -4707,7 +4644,7 @@
         <v>42.08</v>
       </c>
       <c r="I84" s="10" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="J84" s="10" t="s">
         <v>113</v>
@@ -4745,7 +4682,7 @@
         <v>42.08</v>
       </c>
       <c r="I85" s="10" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="J85" s="10" t="s">
         <v>113</v>
@@ -4783,7 +4720,7 @@
         <v>42.08</v>
       </c>
       <c r="I86" s="10" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="J86" s="10" t="s">
         <v>113</v>
@@ -4821,7 +4758,7 @@
         <v>42.08</v>
       </c>
       <c r="I87" s="10" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="J87" s="10" t="s">
         <v>113</v>
@@ -4859,7 +4796,7 @@
         <v>42.08</v>
       </c>
       <c r="I88" s="10" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="J88" s="10" t="s">
         <v>113</v>
@@ -4897,7 +4834,7 @@
         <v>42.08</v>
       </c>
       <c r="I89" s="10" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="J89" s="10" t="s">
         <v>113</v>
@@ -4935,7 +4872,7 @@
         <v>42.08</v>
       </c>
       <c r="I90" s="10" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="J90" s="10" t="s">
         <v>113</v>
@@ -4973,7 +4910,7 @@
         <v>42.08</v>
       </c>
       <c r="I91" s="10" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="J91" s="10" t="s">
         <v>113</v>
@@ -5011,7 +4948,7 @@
         <v>42.08</v>
       </c>
       <c r="I92" s="10" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="J92" s="10" t="s">
         <v>113</v>
@@ -5049,7 +4986,7 @@
         <v>42.08</v>
       </c>
       <c r="I93" s="10" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="J93" s="10" t="s">
         <v>113</v>
@@ -5087,7 +5024,7 @@
         <v>42.08</v>
       </c>
       <c r="I94" s="10" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="J94" s="10" t="s">
         <v>113</v>
@@ -5125,7 +5062,7 @@
         <v>42.08</v>
       </c>
       <c r="I95" s="10" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="J95" s="10" t="s">
         <v>113</v>
@@ -5163,7 +5100,7 @@
         <v>42.08</v>
       </c>
       <c r="I96" s="10" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="J96" s="10" t="s">
         <v>113</v>
@@ -5201,7 +5138,7 @@
         <v>42.08</v>
       </c>
       <c r="I97" s="10" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="J97" s="10" t="s">
         <v>113</v>
@@ -5239,7 +5176,7 @@
         <v>58.65</v>
       </c>
       <c r="I98" s="10" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="J98" s="10" t="s">
         <v>113</v>
@@ -5277,7 +5214,7 @@
         <v>56.85</v>
       </c>
       <c r="I99" s="10" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="J99" s="10" t="s">
         <v>113</v>
@@ -5315,7 +5252,7 @@
         <v>58.65</v>
       </c>
       <c r="I100" s="10" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="J100" s="10" t="s">
         <v>113</v>
@@ -5353,7 +5290,7 @@
         <v>41.2</v>
       </c>
       <c r="I101" s="10" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="J101" s="10" t="s">
         <v>113</v>
@@ -5391,7 +5328,7 @@
         <v>41.2</v>
       </c>
       <c r="I102" s="10" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="J102" s="10" t="s">
         <v>113</v>
